--- a/download/员工导入.xlsx
+++ b/download/员工导入.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>编号</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>销售</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金基数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,7 +455,7 @@
     <col min="2" max="3" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,13 +469,16 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -484,10 +491,13 @@
       <c r="D2" s="4">
         <v>4000</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>1000</v>
+      </c>
       <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <f t="shared" ref="A3" si="0">A2+1</f>
         <v>2</v>
@@ -501,8 +511,11 @@
       <c r="D3" s="4">
         <v>4000</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>1000</v>
+      </c>
       <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
